--- a/data/trans_orig/P23_2_2015-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P23_2_2015-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E73873C-0247-4BDB-BEA0-C38CEC2F6698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98E127A9-A016-4293-8E8B-8493033BC878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B2787CE7-EB3A-48EA-8216-CC8085329EF4}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1DFB9204-4C6A-4B81-BC12-487F19DD7DEE}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="258">
   <si>
     <t>Población según consumo de Hachís/Marihuana en 2015 (Tasa respuesta: 97,08%)</t>
   </si>
@@ -93,28 +93,28 @@
     <t>88,51%</t>
   </si>
   <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
   </si>
   <si>
     <t>95,13%</t>
   </si>
   <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
   </si>
   <si>
     <t>91,72%</t>
   </si>
   <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
   </si>
   <si>
     <t>No fuma pero ha fumado</t>
@@ -123,622 +123,628 @@
     <t>2,73%</t>
   </si>
   <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>Sí fuma pero no diariamente</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>Sí fuma diariamente</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
     <t>1,48%</t>
   </si>
   <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>Sí fuma pero no diariamente</t>
-  </si>
-  <si>
-    <t>3,8%</t>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
   </si>
   <si>
     <t>2,27%</t>
   </si>
   <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>Sí fuma diariamente</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según consumo de Hachís/Marihuana en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
   </si>
   <si>
     <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según consumo de Hachís/Marihuana en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
   </si>
   <si>
     <t>99,37%</t>
@@ -1216,7 +1222,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E031FAA-6D72-4160-B336-F07687CB71C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F3476E7-650E-4423-AC04-4C2D7F551E09}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1475,16 +1481,16 @@
         <v>33</v>
       </c>
       <c r="P6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="7">
         <v>15</v>
@@ -1493,13 +1499,13 @@
         <v>15469</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -1508,13 +1514,13 @@
         <v>6320</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="M7" s="7">
         <v>21</v>
@@ -1523,19 +1529,19 @@
         <v>21789</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="7">
         <v>19</v>
@@ -1544,13 +1550,13 @@
         <v>20208</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -1559,13 +1565,13 @@
         <v>4921</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="M8" s="7">
         <v>24</v>
@@ -1574,13 +1580,13 @@
         <v>25129</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1595,13 +1601,13 @@
         <v>407067</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>392</v>
@@ -1610,13 +1616,13 @@
         <v>382819</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M9" s="7">
         <v>774</v>
@@ -1625,18 +1631,18 @@
         <v>789886</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1654,7 +1660,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1669,7 +1675,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -1684,7 +1690,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1699,13 +1705,13 @@
         <v>486875</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>521</v>
@@ -1714,13 +1720,13 @@
         <v>506857</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>990</v>
@@ -1729,13 +1735,13 @@
         <v>993732</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1750,13 +1756,13 @@
         <v>38157</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H12" s="7">
         <v>13</v>
@@ -1765,13 +1771,13 @@
         <v>12123</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="M12" s="7">
         <v>47</v>
@@ -1780,19 +1786,19 @@
         <v>50280</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="7">
         <v>19</v>
@@ -1801,13 +1807,13 @@
         <v>19535</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -1816,13 +1822,13 @@
         <v>13483</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M13" s="7">
         <v>32</v>
@@ -1831,19 +1837,19 @@
         <v>33018</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="7">
         <v>27</v>
@@ -1852,13 +1858,13 @@
         <v>27202</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>86</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -1867,13 +1873,13 @@
         <v>5229</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M14" s="7">
         <v>32</v>
@@ -1882,13 +1888,13 @@
         <v>32431</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1903,13 +1909,13 @@
         <v>571770</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H15" s="7">
         <v>552</v>
@@ -1918,13 +1924,13 @@
         <v>537692</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M15" s="7">
         <v>1101</v>
@@ -1933,18 +1939,18 @@
         <v>1109462</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1962,37 +1968,37 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2007,13 +2013,13 @@
         <v>599199</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>616</v>
@@ -2022,13 +2028,13 @@
         <v>612716</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>1188</v>
@@ -2037,13 +2043,13 @@
         <v>1211914</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2058,13 +2064,13 @@
         <v>31627</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H18" s="7">
         <v>21</v>
@@ -2073,13 +2079,13 @@
         <v>20359</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="M18" s="7">
         <v>49</v>
@@ -2088,19 +2094,19 @@
         <v>51986</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="7">
         <v>12</v>
@@ -2109,13 +2115,13 @@
         <v>11838</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -2124,13 +2130,13 @@
         <v>2649</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="M19" s="7">
         <v>15</v>
@@ -2139,19 +2145,19 @@
         <v>14488</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="7">
         <v>14</v>
@@ -2160,13 +2166,13 @@
         <v>13225</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>32</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -2175,13 +2181,13 @@
         <v>2734</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>17</v>
@@ -2190,13 +2196,13 @@
         <v>15958</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2211,13 +2217,13 @@
         <v>655889</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H21" s="7">
         <v>643</v>
@@ -2226,13 +2232,13 @@
         <v>638457</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M21" s="7">
         <v>1269</v>
@@ -2241,18 +2247,18 @@
         <v>1294346</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2270,7 +2276,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2285,7 +2291,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -2300,7 +2306,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2315,13 +2321,13 @@
         <v>577430</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H23" s="7">
         <v>576</v>
@@ -2330,13 +2336,13 @@
         <v>621769</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M23" s="7">
         <v>1098</v>
@@ -2345,13 +2351,13 @@
         <v>1199199</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2366,13 +2372,13 @@
         <v>24335</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -2381,13 +2387,13 @@
         <v>6261</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M24" s="7">
         <v>28</v>
@@ -2396,19 +2402,19 @@
         <v>30596</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" s="7">
         <v>6</v>
@@ -2417,13 +2423,13 @@
         <v>6968</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2438,7 +2444,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -2447,19 +2453,19 @@
         <v>6968</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26" s="7">
         <v>16</v>
@@ -2468,14 +2474,14 @@
         <v>18525</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>107</v>
-      </c>
       <c r="H26" s="7">
         <v>0</v>
       </c>
@@ -2489,7 +2495,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M26" s="7">
         <v>16</v>
@@ -2498,13 +2504,13 @@
         <v>18525</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>28</v>
+        <v>152</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>153</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2519,13 +2525,13 @@
         <v>627258</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H27" s="7">
         <v>582</v>
@@ -2534,13 +2540,13 @@
         <v>628030</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M27" s="7">
         <v>1148</v>
@@ -2549,18 +2555,18 @@
         <v>1255288</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2578,7 +2584,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2593,7 +2599,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -2608,7 +2614,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2623,13 +2629,13 @@
         <v>449266</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H29" s="7">
         <v>413</v>
@@ -2638,13 +2644,13 @@
         <v>473219</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M29" s="7">
         <v>812</v>
@@ -2653,13 +2659,13 @@
         <v>922485</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2674,13 +2680,13 @@
         <v>8520</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H30" s="7">
         <v>8</v>
@@ -2692,7 +2698,7 @@
         <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>171</v>
@@ -2707,16 +2713,16 @@
         <v>172</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>124</v>
+        <v>173</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31" s="7">
         <v>0</v>
@@ -2731,7 +2737,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2746,7 +2752,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -2761,13 +2767,13 @@
         <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C32" s="7">
         <v>1</v>
@@ -2776,13 +2782,13 @@
         <v>1041</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -2791,13 +2797,13 @@
         <v>2988</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -2806,13 +2812,13 @@
         <v>4029</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2827,13 +2833,13 @@
         <v>458827</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H33" s="7">
         <v>423</v>
@@ -2842,13 +2848,13 @@
         <v>485564</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M33" s="7">
         <v>831</v>
@@ -2857,13 +2863,13 @@
         <v>944391</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2886,37 +2892,37 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M34" s="7">
+        <v>0</v>
+      </c>
+      <c r="N34" s="7">
+        <v>0</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="H34" s="7">
-        <v>0</v>
-      </c>
-      <c r="I34" s="7">
-        <v>0</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="M34" s="7">
-        <v>0</v>
-      </c>
-      <c r="N34" s="7">
-        <v>0</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3012,19 +3018,19 @@
         <v>17186</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" s="7">
         <v>1</v>
@@ -3033,7 +3039,7 @@
         <v>755</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>119</v>
+        <v>195</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>11</v>
@@ -3054,7 +3060,7 @@
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M37" s="7">
         <v>1</v>
@@ -3075,7 +3081,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C38" s="7">
         <v>0</v>
@@ -3090,37 +3096,37 @@
         <v>12</v>
       </c>
       <c r="G38" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0</v>
+      </c>
+      <c r="I38" s="7">
+        <v>0</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M38" s="7">
+        <v>0</v>
+      </c>
+      <c r="N38" s="7">
+        <v>0</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="H38" s="7">
-        <v>0</v>
-      </c>
-      <c r="I38" s="7">
-        <v>0</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="M38" s="7">
-        <v>0</v>
-      </c>
-      <c r="N38" s="7">
-        <v>0</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3135,13 +3141,13 @@
         <v>572915</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H39" s="7">
         <v>644</v>
@@ -3150,13 +3156,13 @@
         <v>765134</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M39" s="7">
         <v>1254</v>
@@ -3165,13 +3171,13 @@
         <v>1338049</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,10 +3299,10 @@
         <v>208</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>117</v>
+        <v>209</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H42" s="7">
         <v>58</v>
@@ -3305,13 +3311,13 @@
         <v>57433</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M42" s="7">
         <v>176</v>
@@ -3320,19 +3326,19 @@
         <v>186437</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>110</v>
+        <v>216</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C43" s="7">
         <v>53</v>
@@ -3341,13 +3347,13 @@
         <v>54566</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>216</v>
+        <v>142</v>
       </c>
       <c r="H43" s="7">
         <v>22</v>
@@ -3356,13 +3362,13 @@
         <v>22453</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>218</v>
+        <v>114</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="M43" s="7">
         <v>75</v>
@@ -3371,19 +3377,19 @@
         <v>77019</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>31</v>
+        <v>169</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C44" s="7">
         <v>77</v>
@@ -3392,13 +3398,13 @@
         <v>80200</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>173</v>
+        <v>109</v>
       </c>
       <c r="H44" s="7">
         <v>15</v>
@@ -3407,13 +3413,13 @@
         <v>15872</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M44" s="7">
         <v>92</v>
@@ -3422,13 +3428,13 @@
         <v>96072</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3443,13 +3449,13 @@
         <v>3293726</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H45" s="7">
         <v>3236</v>
@@ -3458,13 +3464,13 @@
         <v>3437694</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M45" s="7">
         <v>6377</v>
@@ -3473,18 +3479,18 @@
         <v>6731420</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -3506,7 +3512,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7E9DD76-BFC2-44DE-B8D8-3E018520ED2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34202E5D-37FC-4F4A-A1FE-FD087D7C8159}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3523,7 +3529,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3633,10 +3639,10 @@
         <v>185</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H4" s="7">
         <v>207</v>
@@ -3648,10 +3654,10 @@
         <v>185</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M4" s="7">
         <v>379</v>
@@ -3663,10 +3669,10 @@
         <v>185</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3687,7 +3693,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3702,7 +3708,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>168</v>
+        <v>31</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3717,7 +3723,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>51</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3738,7 +3744,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3753,7 +3759,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>168</v>
+        <v>31</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -3768,13 +3774,13 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>51</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -3789,7 +3795,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3804,7 +3810,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>168</v>
+        <v>31</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3819,13 +3825,13 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>51</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -3840,7 +3846,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3855,7 +3861,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>168</v>
+        <v>31</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3870,7 +3876,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>51</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3885,13 +3891,13 @@
         <v>377679</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>207</v>
@@ -3900,13 +3906,13 @@
         <v>354957</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M9" s="7">
         <v>379</v>
@@ -3915,18 +3921,18 @@
         <v>732636</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3941,10 +3947,10 @@
         <v>185</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H10" s="7">
         <v>461</v>
@@ -3956,10 +3962,10 @@
         <v>185</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M10" s="7">
         <v>763</v>
@@ -3974,7 +3980,7 @@
         <v>183</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3995,7 +4001,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4010,7 +4016,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -4046,7 +4052,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4061,7 +4067,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4082,7 +4088,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -4097,7 +4103,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4112,7 +4118,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4133,7 +4139,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -4148,7 +4154,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4163,7 +4169,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4193,13 +4199,13 @@
         <v>428396</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H15" s="7">
         <v>461</v>
@@ -4208,13 +4214,13 @@
         <v>499215</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M15" s="7">
         <v>763</v>
@@ -4223,18 +4229,18 @@
         <v>927611</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4249,10 +4255,10 @@
         <v>185</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H16" s="7">
         <v>848</v>
@@ -4264,10 +4270,10 @@
         <v>185</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M16" s="7">
         <v>1394</v>
@@ -4279,10 +4285,10 @@
         <v>185</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4303,7 +4309,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4318,7 +4324,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4333,7 +4339,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4354,7 +4360,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -4369,7 +4375,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -4384,13 +4390,13 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="7">
         <v>0</v>
@@ -4405,7 +4411,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4420,7 +4426,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -4435,13 +4441,13 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -4456,7 +4462,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4471,7 +4477,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4486,7 +4492,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4501,13 +4507,13 @@
         <v>557252</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H21" s="7">
         <v>848</v>
@@ -4516,13 +4522,13 @@
         <v>610447</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M21" s="7">
         <v>1394</v>
@@ -4531,18 +4537,18 @@
         <v>1167699</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4557,10 +4563,10 @@
         <v>185</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H22" s="7">
         <v>1141</v>
@@ -4572,25 +4578,25 @@
         <v>185</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M22" s="7">
         <v>1806</v>
       </c>
       <c r="N22" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>185</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4611,7 +4617,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -4626,7 +4632,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -4641,7 +4647,7 @@
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4662,7 +4668,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4677,7 +4683,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4692,13 +4698,13 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" s="7">
         <v>0</v>
@@ -4713,7 +4719,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -4728,7 +4734,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -4743,13 +4749,13 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -4764,7 +4770,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -4779,7 +4785,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -4794,7 +4800,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4809,13 +4815,13 @@
         <v>723990</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H27" s="7">
         <v>1141</v>
@@ -4824,33 +4830,33 @@
         <v>747261</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M27" s="7">
         <v>1806</v>
       </c>
       <c r="N27" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4865,10 +4871,10 @@
         <v>185</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H28" s="7">
         <v>1002</v>
@@ -4880,10 +4886,10 @@
         <v>185</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M28" s="7">
         <v>1665</v>
@@ -4895,10 +4901,10 @@
         <v>185</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4919,7 +4925,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -4934,7 +4940,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -4949,7 +4955,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4970,7 +4976,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -4985,7 +4991,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -5000,13 +5006,13 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31" s="7">
         <v>0</v>
@@ -5021,7 +5027,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -5036,7 +5042,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -5051,13 +5057,13 @@
         <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C32" s="7">
         <v>0</v>
@@ -5072,7 +5078,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -5087,7 +5093,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -5102,7 +5108,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5117,13 +5123,13 @@
         <v>600157</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H33" s="7">
         <v>1002</v>
@@ -5132,13 +5138,13 @@
         <v>597063</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M33" s="7">
         <v>1665</v>
@@ -5147,13 +5153,13 @@
         <v>1197220</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5167,16 +5173,16 @@
         <v>1028</v>
       </c>
       <c r="D34" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>185</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H34" s="7">
         <v>1708</v>
@@ -5188,10 +5194,10 @@
         <v>185</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M34" s="7">
         <v>2736</v>
@@ -5203,10 +5209,10 @@
         <v>185</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5227,7 +5233,7 @@
         <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -5242,7 +5248,7 @@
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -5257,7 +5263,7 @@
         <v>12</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5278,7 +5284,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -5293,7 +5299,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -5308,13 +5314,13 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" s="7">
         <v>0</v>
@@ -5329,7 +5335,7 @@
         <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -5344,7 +5350,7 @@
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -5359,13 +5365,13 @@
         <v>12</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C38" s="7">
         <v>0</v>
@@ -5380,7 +5386,7 @@
         <v>12</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -5395,7 +5401,7 @@
         <v>12</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -5410,7 +5416,7 @@
         <v>12</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5422,16 +5428,16 @@
         <v>1028</v>
       </c>
       <c r="D39" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H39" s="7">
         <v>1708</v>
@@ -5440,13 +5446,13 @@
         <v>1026637</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M39" s="7">
         <v>2736</v>
@@ -5455,13 +5461,13 @@
         <v>1724392</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -5481,10 +5487,10 @@
         <v>185</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H40" s="7">
         <v>5367</v>
@@ -5496,25 +5502,25 @@
         <v>185</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M40" s="7">
         <v>8743</v>
       </c>
       <c r="N40" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O40" s="7" t="s">
         <v>185</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -5550,7 +5556,7 @@
         <v>12</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -5565,7 +5571,7 @@
         <v>12</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -5601,7 +5607,7 @@
         <v>12</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -5616,13 +5622,13 @@
         <v>12</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C43" s="7">
         <v>0</v>
@@ -5652,7 +5658,7 @@
         <v>12</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M43" s="7">
         <v>0</v>
@@ -5667,13 +5673,13 @@
         <v>12</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C44" s="7">
         <v>0</v>
@@ -5703,7 +5709,7 @@
         <v>12</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -5718,7 +5724,7 @@
         <v>12</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -5733,13 +5739,13 @@
         <v>3385228</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H45" s="7">
         <v>5367</v>
@@ -5748,33 +5754,33 @@
         <v>3835581</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M45" s="7">
         <v>8743</v>
       </c>
       <c r="N45" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P23_2_2015-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P23_2_2015-Edad-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98E127A9-A016-4293-8E8B-8493033BC878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{40BDA995-07B2-4BB7-ABD0-DC0318BE3AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1DFB9204-4C6A-4B81-BC12-487F19DD7DEE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{25A4D87B-F14F-41E6-8A1D-DEE7BF8B8933}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="258">
-  <si>
-    <t>Población según consumo de Hachís/Marihuana en 2015 (Tasa respuesta: 97,08%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="262">
+  <si>
+    <t>Población según consumo de Hachís/Marihuana en 2016 (Tasa respuesta: 97,08%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -93,28 +93,28 @@
     <t>88,51%</t>
   </si>
   <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
   </si>
   <si>
     <t>95,13%</t>
   </si>
   <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
   </si>
   <si>
     <t>91,72%</t>
   </si>
   <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
   </si>
   <si>
     <t>No fuma pero ha fumado</t>
@@ -123,649 +123,661 @@
     <t>2,73%</t>
   </si>
   <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
   </si>
   <si>
     <t>1,93%</t>
   </si>
   <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>Sí fuma pero no diariamente</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>Sí fuma diariamente</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según consumo de Hachís/Marihuana en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
     <t>0,92%</t>
   </si>
   <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>Sí fuma pero no diariamente</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>Sí fuma diariamente</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
   </si>
   <si>
     <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según consumo de Hachís/Marihuana en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
   </si>
   <si>
     <t>99,71%</t>
@@ -1222,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F3476E7-650E-4423-AC04-4C2D7F551E09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CEB42EB-17F5-4635-8B8B-05F826D1E6EA}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1481,16 +1493,16 @@
         <v>33</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="7">
         <v>15</v>
@@ -1499,13 +1511,13 @@
         <v>15469</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -1514,13 +1526,13 @@
         <v>6320</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M7" s="7">
         <v>21</v>
@@ -1529,19 +1541,19 @@
         <v>21789</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" s="7">
         <v>19</v>
@@ -1550,13 +1562,13 @@
         <v>20208</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -1565,13 +1577,13 @@
         <v>4921</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M8" s="7">
         <v>24</v>
@@ -1580,13 +1592,13 @@
         <v>25129</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1601,13 +1613,13 @@
         <v>407067</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H9" s="7">
         <v>392</v>
@@ -1616,13 +1628,13 @@
         <v>382819</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M9" s="7">
         <v>774</v>
@@ -1631,18 +1643,18 @@
         <v>789886</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1660,7 +1672,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1675,7 +1687,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -1690,7 +1702,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1705,13 +1717,13 @@
         <v>486875</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>521</v>
@@ -1720,13 +1732,13 @@
         <v>506857</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>990</v>
@@ -1735,13 +1747,13 @@
         <v>993732</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1756,13 +1768,13 @@
         <v>38157</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H12" s="7">
         <v>13</v>
@@ -1771,13 +1783,13 @@
         <v>12123</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M12" s="7">
         <v>47</v>
@@ -1786,19 +1798,19 @@
         <v>50280</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="7">
         <v>19</v>
@@ -1807,13 +1819,13 @@
         <v>19535</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -1822,13 +1834,13 @@
         <v>13483</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M13" s="7">
         <v>32</v>
@@ -1837,19 +1849,19 @@
         <v>33018</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" s="7">
         <v>27</v>
@@ -1858,13 +1870,13 @@
         <v>27202</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -1873,13 +1885,13 @@
         <v>5229</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M14" s="7">
         <v>32</v>
@@ -1888,13 +1900,13 @@
         <v>32431</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1909,13 +1921,13 @@
         <v>571770</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H15" s="7">
         <v>552</v>
@@ -1924,13 +1936,13 @@
         <v>537692</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M15" s="7">
         <v>1101</v>
@@ -1939,18 +1951,18 @@
         <v>1109462</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1968,7 +1980,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1983,7 +1995,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -1998,7 +2010,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2013,13 +2025,13 @@
         <v>599199</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H17" s="7">
         <v>616</v>
@@ -2028,13 +2040,13 @@
         <v>612716</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="M17" s="7">
         <v>1188</v>
@@ -2043,13 +2055,13 @@
         <v>1211914</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2064,13 +2076,13 @@
         <v>31627</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H18" s="7">
         <v>21</v>
@@ -2079,13 +2091,13 @@
         <v>20359</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M18" s="7">
         <v>49</v>
@@ -2094,19 +2106,19 @@
         <v>51986</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19" s="7">
         <v>12</v>
@@ -2115,13 +2127,13 @@
         <v>11838</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -2130,13 +2142,13 @@
         <v>2649</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="M19" s="7">
         <v>15</v>
@@ -2145,19 +2157,19 @@
         <v>14488</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" s="7">
         <v>14</v>
@@ -2166,13 +2178,13 @@
         <v>13225</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -2181,13 +2193,13 @@
         <v>2734</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="M20" s="7">
         <v>17</v>
@@ -2196,13 +2208,13 @@
         <v>15958</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2217,13 +2229,13 @@
         <v>655889</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H21" s="7">
         <v>643</v>
@@ -2232,13 +2244,13 @@
         <v>638457</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M21" s="7">
         <v>1269</v>
@@ -2247,18 +2259,18 @@
         <v>1294346</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2276,7 +2288,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2291,7 +2303,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -2306,7 +2318,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2321,13 +2333,13 @@
         <v>577430</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>576</v>
@@ -2336,13 +2348,13 @@
         <v>621769</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>1098</v>
@@ -2351,13 +2363,13 @@
         <v>1199199</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2372,13 +2384,13 @@
         <v>24335</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -2387,13 +2399,13 @@
         <v>6261</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="M24" s="7">
         <v>28</v>
@@ -2402,19 +2414,19 @@
         <v>30596</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C25" s="7">
         <v>6</v>
@@ -2423,13 +2435,13 @@
         <v>6968</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>33</v>
+        <v>153</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2444,7 +2456,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -2453,19 +2465,19 @@
         <v>6968</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C26" s="7">
         <v>16</v>
@@ -2474,13 +2486,13 @@
         <v>18525</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2495,7 +2507,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="M26" s="7">
         <v>16</v>
@@ -2504,13 +2516,13 @@
         <v>18525</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>152</v>
+        <v>28</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2525,13 +2537,13 @@
         <v>627258</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H27" s="7">
         <v>582</v>
@@ -2540,13 +2552,13 @@
         <v>628030</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M27" s="7">
         <v>1148</v>
@@ -2555,18 +2567,18 @@
         <v>1255288</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2584,7 +2596,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2599,7 +2611,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -2614,7 +2626,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2629,13 +2641,13 @@
         <v>449266</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="H29" s="7">
         <v>413</v>
@@ -2644,13 +2656,13 @@
         <v>473219</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="M29" s="7">
         <v>812</v>
@@ -2659,13 +2671,13 @@
         <v>922485</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2680,13 +2692,13 @@
         <v>8520</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>170</v>
+        <v>42</v>
       </c>
       <c r="H30" s="7">
         <v>8</v>
@@ -2698,10 +2710,10 @@
         <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="M30" s="7">
         <v>16</v>
@@ -2710,19 +2722,19 @@
         <v>17877</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C31" s="7">
         <v>0</v>
@@ -2737,7 +2749,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -2752,7 +2764,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -2767,13 +2779,13 @@
         <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C32" s="7">
         <v>1</v>
@@ -2782,13 +2794,13 @@
         <v>1041</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -2797,13 +2809,13 @@
         <v>2988</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -2812,13 +2824,13 @@
         <v>4029</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2833,13 +2845,13 @@
         <v>458827</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H33" s="7">
         <v>423</v>
@@ -2848,13 +2860,13 @@
         <v>485564</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M33" s="7">
         <v>831</v>
@@ -2863,18 +2875,18 @@
         <v>944391</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -2892,7 +2904,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -2907,7 +2919,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -2922,7 +2934,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2937,13 +2949,13 @@
         <v>556904</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="H35" s="7">
         <v>642</v>
@@ -2952,13 +2964,13 @@
         <v>763203</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="M35" s="7">
         <v>1236</v>
@@ -2967,13 +2979,13 @@
         <v>1320107</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2988,13 +3000,13 @@
         <v>15255</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H36" s="7">
         <v>2</v>
@@ -3009,7 +3021,7 @@
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="M36" s="7">
         <v>17</v>
@@ -3018,19 +3030,19 @@
         <v>17186</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>122</v>
+        <v>200</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>194</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C37" s="7">
         <v>1</v>
@@ -3039,13 +3051,13 @@
         <v>755</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>195</v>
+        <v>119</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -3060,7 +3072,7 @@
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M37" s="7">
         <v>1</v>
@@ -3069,19 +3081,19 @@
         <v>755</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C38" s="7">
         <v>0</v>
@@ -3096,7 +3108,7 @@
         <v>12</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -3111,7 +3123,7 @@
         <v>12</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -3126,7 +3138,7 @@
         <v>12</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3141,13 +3153,13 @@
         <v>572915</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H39" s="7">
         <v>644</v>
@@ -3156,13 +3168,13 @@
         <v>765134</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M39" s="7">
         <v>1254</v>
@@ -3171,13 +3183,13 @@
         <v>1338049</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3200,7 +3212,7 @@
         <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -3215,7 +3227,7 @@
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -3230,7 +3242,7 @@
         <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3245,13 +3257,13 @@
         <v>3029955</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="H41" s="7">
         <v>3141</v>
@@ -3260,13 +3272,13 @@
         <v>3341937</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="M41" s="7">
         <v>6034</v>
@@ -3275,13 +3287,13 @@
         <v>6371891</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>206</v>
+        <v>142</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3296,13 +3308,13 @@
         <v>129005</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="H42" s="7">
         <v>58</v>
@@ -3311,13 +3323,13 @@
         <v>57433</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>212</v>
+        <v>129</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>213</v>
+        <v>53</v>
       </c>
       <c r="M42" s="7">
         <v>176</v>
@@ -3326,19 +3338,19 @@
         <v>186437</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>216</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C43" s="7">
         <v>53</v>
@@ -3347,13 +3359,13 @@
         <v>54566</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>142</v>
+        <v>220</v>
       </c>
       <c r="H43" s="7">
         <v>22</v>
@@ -3362,13 +3374,13 @@
         <v>22453</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>114</v>
+        <v>222</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>112</v>
+        <v>223</v>
       </c>
       <c r="M43" s="7">
         <v>75</v>
@@ -3377,19 +3389,19 @@
         <v>77019</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>169</v>
+        <v>225</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C44" s="7">
         <v>77</v>
@@ -3398,13 +3410,13 @@
         <v>80200</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>223</v>
+        <v>179</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>109</v>
+        <v>228</v>
       </c>
       <c r="H44" s="7">
         <v>15</v>
@@ -3413,13 +3425,13 @@
         <v>15872</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="M44" s="7">
         <v>92</v>
@@ -3428,13 +3440,13 @@
         <v>96072</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>228</v>
+        <v>156</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3449,13 +3461,13 @@
         <v>3293726</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H45" s="7">
         <v>3236</v>
@@ -3464,13 +3476,13 @@
         <v>3437694</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M45" s="7">
         <v>6377</v>
@@ -3479,18 +3491,18 @@
         <v>6731420</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -3512,7 +3524,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34202E5D-37FC-4F4A-A1FE-FD087D7C8159}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32A45F7A-2AA5-4394-AA0E-DB50DF276EEC}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3529,7 +3541,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3636,13 +3648,13 @@
         <v>377679</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H4" s="7">
         <v>207</v>
@@ -3651,13 +3663,13 @@
         <v>354957</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M4" s="7">
         <v>379</v>
@@ -3666,13 +3678,13 @@
         <v>732636</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3693,7 +3705,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3708,7 +3720,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>31</v>
+        <v>239</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3723,7 +3735,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>235</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3744,7 +3756,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3759,7 +3771,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>31</v>
+        <v>239</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -3774,13 +3786,13 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>235</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -3795,7 +3807,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3810,7 +3822,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>31</v>
+        <v>239</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3825,13 +3837,13 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>235</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -3846,7 +3858,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3861,7 +3873,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>31</v>
+        <v>239</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3876,7 +3888,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>235</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3891,13 +3903,13 @@
         <v>377679</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H9" s="7">
         <v>207</v>
@@ -3906,13 +3918,13 @@
         <v>354957</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M9" s="7">
         <v>379</v>
@@ -3921,18 +3933,18 @@
         <v>732636</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3944,13 +3956,13 @@
         <v>428396</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H10" s="7">
         <v>461</v>
@@ -3959,13 +3971,13 @@
         <v>499215</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>763</v>
@@ -3974,13 +3986,13 @@
         <v>927611</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4001,7 +4013,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4016,7 +4028,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -4052,7 +4064,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4067,7 +4079,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4088,7 +4100,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -4103,7 +4115,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4118,7 +4130,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4139,7 +4151,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -4154,7 +4166,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4169,7 +4181,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4199,13 +4211,13 @@
         <v>428396</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H15" s="7">
         <v>461</v>
@@ -4214,13 +4226,13 @@
         <v>499215</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M15" s="7">
         <v>763</v>
@@ -4229,18 +4241,18 @@
         <v>927611</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4252,13 +4264,13 @@
         <v>557252</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H16" s="7">
         <v>848</v>
@@ -4267,13 +4279,13 @@
         <v>610447</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M16" s="7">
         <v>1394</v>
@@ -4282,13 +4294,13 @@
         <v>1167699</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4309,7 +4321,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4324,7 +4336,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4339,7 +4351,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4360,7 +4372,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -4375,7 +4387,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -4390,13 +4402,13 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>121</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19" s="7">
         <v>0</v>
@@ -4411,7 +4423,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4426,7 +4438,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -4441,13 +4453,13 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>121</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -4462,7 +4474,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4477,7 +4489,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4492,7 +4504,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4507,13 +4519,13 @@
         <v>557252</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H21" s="7">
         <v>848</v>
@@ -4522,13 +4534,13 @@
         <v>610447</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M21" s="7">
         <v>1394</v>
@@ -4537,18 +4549,18 @@
         <v>1167699</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4560,13 +4572,13 @@
         <v>723990</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H22" s="7">
         <v>1141</v>
@@ -4575,13 +4587,13 @@
         <v>747261</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M22" s="7">
         <v>1806</v>
@@ -4590,13 +4602,13 @@
         <v>1471251</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4617,7 +4629,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -4632,7 +4644,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -4647,7 +4659,7 @@
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4668,7 +4680,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4683,7 +4695,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4698,13 +4710,13 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C25" s="7">
         <v>0</v>
@@ -4719,7 +4731,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -4734,7 +4746,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -4749,13 +4761,13 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -4770,7 +4782,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -4785,7 +4797,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -4800,7 +4812,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4815,13 +4827,13 @@
         <v>723990</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H27" s="7">
         <v>1141</v>
@@ -4830,13 +4842,13 @@
         <v>747261</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M27" s="7">
         <v>1806</v>
@@ -4845,18 +4857,18 @@
         <v>1471251</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4868,13 +4880,13 @@
         <v>600157</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H28" s="7">
         <v>1002</v>
@@ -4883,13 +4895,13 @@
         <v>597063</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M28" s="7">
         <v>1665</v>
@@ -4898,13 +4910,13 @@
         <v>1197220</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4925,7 +4937,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -4940,7 +4952,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -4955,7 +4967,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4976,7 +4988,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -4991,7 +5003,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -5006,13 +5018,13 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C31" s="7">
         <v>0</v>
@@ -5027,7 +5039,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -5042,7 +5054,7 @@
         <v>12</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -5057,13 +5069,13 @@
         <v>12</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C32" s="7">
         <v>0</v>
@@ -5078,7 +5090,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -5093,7 +5105,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -5108,7 +5120,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5123,13 +5135,13 @@
         <v>600157</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H33" s="7">
         <v>1002</v>
@@ -5138,13 +5150,13 @@
         <v>597063</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M33" s="7">
         <v>1665</v>
@@ -5153,18 +5165,18 @@
         <v>1197220</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -5176,13 +5188,13 @@
         <v>697755</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H34" s="7">
         <v>1708</v>
@@ -5191,13 +5203,13 @@
         <v>1026637</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M34" s="7">
         <v>2736</v>
@@ -5206,13 +5218,13 @@
         <v>1724392</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5233,7 +5245,7 @@
         <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -5248,7 +5260,7 @@
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -5263,7 +5275,7 @@
         <v>12</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5284,7 +5296,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -5299,7 +5311,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -5314,13 +5326,13 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C37" s="7">
         <v>0</v>
@@ -5335,7 +5347,7 @@
         <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -5350,7 +5362,7 @@
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -5365,13 +5377,13 @@
         <v>12</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C38" s="7">
         <v>0</v>
@@ -5386,7 +5398,7 @@
         <v>12</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -5401,7 +5413,7 @@
         <v>12</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -5416,7 +5428,7 @@
         <v>12</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5431,13 +5443,13 @@
         <v>697755</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H39" s="7">
         <v>1708</v>
@@ -5446,13 +5458,13 @@
         <v>1026637</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M39" s="7">
         <v>2736</v>
@@ -5461,13 +5473,13 @@
         <v>1724392</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -5484,13 +5496,13 @@
         <v>3385228</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H40" s="7">
         <v>5367</v>
@@ -5499,13 +5511,13 @@
         <v>3835581</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M40" s="7">
         <v>8743</v>
@@ -5514,13 +5526,13 @@
         <v>7220808</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -5541,7 +5553,7 @@
         <v>12</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -5556,7 +5568,7 @@
         <v>12</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -5571,7 +5583,7 @@
         <v>12</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -5592,7 +5604,7 @@
         <v>12</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -5607,7 +5619,7 @@
         <v>12</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -5622,13 +5634,13 @@
         <v>12</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C43" s="7">
         <v>0</v>
@@ -5643,7 +5655,7 @@
         <v>12</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -5658,7 +5670,7 @@
         <v>12</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="M43" s="7">
         <v>0</v>
@@ -5673,13 +5685,13 @@
         <v>12</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C44" s="7">
         <v>0</v>
@@ -5694,7 +5706,7 @@
         <v>12</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -5709,7 +5721,7 @@
         <v>12</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -5724,7 +5736,7 @@
         <v>12</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -5739,13 +5751,13 @@
         <v>3385228</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H45" s="7">
         <v>5367</v>
@@ -5754,13 +5766,13 @@
         <v>3835581</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M45" s="7">
         <v>8743</v>
@@ -5769,18 +5781,18 @@
         <v>7220808</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
